--- a/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyHeight.xlsx
+++ b/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyHeight.xlsx
@@ -1278,8 +1278,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t xml:space="preserve">Quantity
+</t>
   </si>
   <si>
     <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
@@ -1318,10 +1318,6 @@
   </si>
   <si>
     <t>valueQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
   </si>
   <si>
     <t>Observation.value[x]:valueQuantity.id</t>
@@ -1971,6 +1967,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Vital Sign Value recorded with UCUM</t>
@@ -9323,7 +9323,7 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>406</v>
@@ -9419,10 +9419,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9537,10 +9537,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9657,10 +9657,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9683,19 +9683,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9744,7 +9744,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9765,10 +9765,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9779,10 +9779,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9808,22 +9808,22 @@
         <v>116</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>257</v>
       </c>
       <c r="O62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q62" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q62" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>82</v>
@@ -9847,28 +9847,28 @@
         <v>189</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z62" t="s" s="2">
+      <c r="AA62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9889,10 +9889,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9903,10 +9903,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9932,16 +9932,16 @@
         <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>257</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9990,7 +9990,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10011,10 +10011,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10025,10 +10025,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10054,74 +10054,74 @@
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="S64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF64" t="s" s="2">
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>106</v>
@@ -10133,10 +10133,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10147,10 +10147,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10176,16 +10176,16 @@
         <v>116</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10213,28 +10213,28 @@
         <v>189</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="Z65" t="s" s="2">
+      <c r="AA65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10255,10 +10255,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10269,10 +10269,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10298,16 +10298,16 @@
         <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10335,37 +10335,37 @@
         <v>296</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AA66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI66" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10380,7 +10380,7 @@
         <v>107</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10391,14 +10391,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10420,16 +10420,16 @@
         <v>198</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10457,11 +10457,11 @@
         <v>296</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10496,27 +10496,27 @@
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP67" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>491</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10539,19 +10539,19 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10600,7 +10600,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10621,10 +10621,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10635,10 +10635,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10664,13 +10664,13 @@
         <v>198</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10696,14 +10696,14 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10738,27 +10738,27 @@
         <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10784,16 +10784,16 @@
         <v>198</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10818,14 +10818,14 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10863,10 +10863,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10877,10 +10877,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10903,16 +10903,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10962,7 +10962,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10980,27 +10980,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>528</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11023,16 +11023,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11082,7 +11082,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11100,27 +11100,27 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>537</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11143,19 +11143,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11204,7 +11204,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11216,19 +11216,19 @@
         <v>105</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11239,10 +11239,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11357,10 +11357,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11477,14 +11477,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11506,10 +11506,10 @@
         <v>141</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>144</v>
@@ -11564,7 +11564,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11599,10 +11599,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11625,16 +11625,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11684,7 +11684,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11693,22 +11693,22 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AJ77" t="s" s="2">
+      <c r="AK77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="AK77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11719,10 +11719,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11745,16 +11745,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>565</v>
-      </c>
       <c r="N78" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11804,7 +11804,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11813,22 +11813,22 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AJ78" t="s" s="2">
+      <c r="AK78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="AK78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11839,10 +11839,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11868,16 +11868,16 @@
         <v>198</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11905,11 +11905,11 @@
         <v>120</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>573</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11944,13 +11944,13 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AM79" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AN79" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11961,10 +11961,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11990,16 +11990,16 @@
         <v>198</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12024,14 +12024,14 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>582</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12066,13 +12066,13 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AM80" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AN80" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12083,10 +12083,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12109,19 +12109,19 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12170,7 +12170,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12182,19 +12182,19 @@
         <v>105</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="AK81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12205,10 +12205,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12234,10 +12234,10 @@
         <v>213</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>257</v>
@@ -12290,7 +12290,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12311,10 +12311,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12325,10 +12325,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12351,16 +12351,16 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12410,7 +12410,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12431,10 +12431,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12445,10 +12445,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12471,16 +12471,16 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12530,7 +12530,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12551,10 +12551,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12565,10 +12565,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12591,19 +12591,19 @@
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12652,7 +12652,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12664,19 +12664,19 @@
         <v>105</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AK85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12687,10 +12687,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12805,10 +12805,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12925,14 +12925,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12954,10 +12954,10 @@
         <v>141</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>144</v>
@@ -13012,7 +13012,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13047,10 +13047,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13076,16 +13076,16 @@
         <v>198</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13134,7 +13134,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>93</v>
@@ -13152,7 +13152,7 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>301</v>
@@ -13169,10 +13169,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13195,7 +13195,7 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>405</v>
+        <v>625</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>626</v>
@@ -13256,7 +13256,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13329,7 +13329,7 @@
         <v>636</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13357,10 +13357,10 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13402,7 +13402,7 @@
         <v>107</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13420,7 +13420,7 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13442,16 +13442,16 @@
         <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13479,10 +13479,10 @@
         <v>296</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13518,19 +13518,19 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>491</v>
       </c>
     </row>
     <row r="93" hidden="true">
@@ -13570,10 +13570,10 @@
         <v>641</v>
       </c>
       <c r="N93" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O93" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13643,10 +13643,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>

--- a/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyHeight.xlsx
+++ b/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyHeight.xlsx
@@ -1278,46 +1278,50 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>ele-1
+obs-7vs-2</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity
 </t>
-  </si>
-  <si>
-    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>ele-1
-obs-7vs-2</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
   </si>
   <si>
     <t>Observation.value[x]:valueQuantity.id</t>
@@ -1967,10 +1971,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Vital Sign Value recorded with UCUM</t>
@@ -9323,7 +9323,7 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>406</v>
@@ -9419,10 +9419,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9537,10 +9537,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9657,10 +9657,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9683,19 +9683,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9744,7 +9744,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9765,10 +9765,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9779,10 +9779,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9808,22 +9808,22 @@
         <v>116</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>257</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>82</v>
@@ -9847,10 +9847,10 @@
         <v>189</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9868,7 +9868,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9889,10 +9889,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9903,10 +9903,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9932,16 +9932,16 @@
         <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>257</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9990,7 +9990,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10011,10 +10011,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10025,10 +10025,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10054,23 +10054,23 @@
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>82</v>
@@ -10112,7 +10112,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10121,7 +10121,7 @@
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>106</v>
@@ -10133,10 +10133,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10147,10 +10147,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10176,16 +10176,16 @@
         <v>116</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10213,10 +10213,10 @@
         <v>189</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10234,7 +10234,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10255,10 +10255,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10269,10 +10269,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10298,16 +10298,16 @@
         <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10335,10 +10335,10 @@
         <v>296</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10356,7 +10356,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10365,7 +10365,7 @@
         <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10380,7 +10380,7 @@
         <v>107</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10391,14 +10391,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10420,16 +10420,16 @@
         <v>198</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10457,10 +10457,10 @@
         <v>296</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10478,7 +10478,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10496,27 +10496,27 @@
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10539,19 +10539,19 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10600,7 +10600,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10621,10 +10621,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10635,10 +10635,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10664,13 +10664,13 @@
         <v>198</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10696,13 +10696,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10720,7 +10720,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10738,27 +10738,27 @@
         <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10784,16 +10784,16 @@
         <v>198</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10818,13 +10818,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10842,7 +10842,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10863,10 +10863,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10877,10 +10877,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10903,16 +10903,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10962,7 +10962,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10980,27 +10980,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11023,16 +11023,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11082,7 +11082,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11100,27 +11100,27 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11143,19 +11143,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11204,7 +11204,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11216,7 +11216,7 @@
         <v>105</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11225,10 +11225,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11239,10 +11239,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11357,10 +11357,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11477,14 +11477,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11506,10 +11506,10 @@
         <v>141</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>144</v>
@@ -11564,7 +11564,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11599,10 +11599,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11625,16 +11625,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11684,7 +11684,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11693,10 +11693,10 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11705,10 +11705,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11719,10 +11719,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11745,16 +11745,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11804,7 +11804,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11813,10 +11813,10 @@
         <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11825,10 +11825,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11839,10 +11839,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11868,16 +11868,16 @@
         <v>198</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11905,10 +11905,10 @@
         <v>120</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11926,7 +11926,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11944,13 +11944,13 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11961,10 +11961,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11990,16 +11990,16 @@
         <v>198</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12024,13 +12024,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12048,7 +12048,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12066,13 +12066,13 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12083,10 +12083,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12109,19 +12109,19 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12170,7 +12170,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12182,7 +12182,7 @@
         <v>105</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12191,10 +12191,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12205,10 +12205,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12234,10 +12234,10 @@
         <v>213</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>257</v>
@@ -12290,7 +12290,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12311,10 +12311,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12325,10 +12325,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12351,16 +12351,16 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12410,7 +12410,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12431,10 +12431,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12445,10 +12445,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12471,16 +12471,16 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12530,7 +12530,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12551,10 +12551,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12565,10 +12565,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12591,19 +12591,19 @@
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12652,7 +12652,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12664,7 +12664,7 @@
         <v>105</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12673,10 +12673,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12687,10 +12687,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12805,10 +12805,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12925,14 +12925,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12954,10 +12954,10 @@
         <v>141</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>144</v>
@@ -13012,7 +13012,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13047,10 +13047,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13076,16 +13076,16 @@
         <v>198</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13134,7 +13134,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>93</v>
@@ -13152,7 +13152,7 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>301</v>
@@ -13169,10 +13169,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13195,7 +13195,7 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>625</v>
+        <v>405</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>626</v>
@@ -13256,7 +13256,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13329,7 +13329,7 @@
         <v>636</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13357,10 +13357,10 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13402,7 +13402,7 @@
         <v>107</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13420,7 +13420,7 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13442,16 +13442,16 @@
         <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13479,10 +13479,10 @@
         <v>296</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13518,19 +13518,19 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" hidden="true">
@@ -13570,10 +13570,10 @@
         <v>641</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13643,10 +13643,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>

--- a/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyHeight.xlsx
+++ b/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyHeight.xlsx
@@ -1243,6 +1243,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1293,9 +1296,6 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>ele-1
@@ -8889,7 +8889,7 @@
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>147</v>
+        <v>394</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>388</v>
@@ -8907,19 +8907,19 @@
         <v>171</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8927,13 +8927,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>388</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>82</v>
@@ -8955,7 +8955,7 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>390</v>
@@ -9031,19 +9031,19 @@
         <v>171</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
@@ -9051,13 +9051,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>388</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>82</v>
@@ -9079,7 +9079,7 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>390</v>
@@ -9155,19 +9155,19 @@
         <v>171</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>82</v>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9201,19 +9201,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9250,17 +9250,17 @@
         <v>82</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9298,7 +9298,7 @@
         <v>416</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>417</v>
@@ -9323,19 +9323,19 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9384,7 +9384,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -13207,7 +13207,7 @@
         <v>628</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>

--- a/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyHeight.xlsx
+++ b/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyHeight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="644">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/NoVitalSignsObservationBodyHeight</t>
+    <t>http://hl7.no/fhir/StructureDefinition/NoVitalSignsObservationBodyHeight</t>
   </si>
   <si>
     <t>Version</t>
@@ -1318,6 +1318,12 @@
   </si>
   <si>
     <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Body height (cm), measured as a quantity.</t>
+  </si>
+  <si>
+    <t>The measured vertical distance from the bottom of the feet to the top of the head, expressed as a quantitative value. This measurement is typically recorded in centimeters (cm) but may also be expressed in inches (in). It is obtained using a stadiometer or other measuring device.</t>
   </si>
   <si>
     <t>Observation.value[x]:valueQuantity.id</t>
@@ -9326,10 +9332,10 @@
         <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>408</v>
@@ -9419,10 +9425,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9537,10 +9543,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9657,10 +9663,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9683,19 +9689,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9744,7 +9750,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9765,10 +9771,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9779,10 +9785,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9808,22 +9814,22 @@
         <v>116</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>257</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q62" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>82</v>
@@ -9847,10 +9853,10 @@
         <v>189</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9868,7 +9874,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9889,10 +9895,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9903,10 +9909,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9932,16 +9938,16 @@
         <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>257</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9990,7 +9996,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10011,10 +10017,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10025,10 +10031,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10054,23 +10060,23 @@
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>82</v>
@@ -10112,7 +10118,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10121,7 +10127,7 @@
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>106</v>
@@ -10133,10 +10139,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10147,10 +10153,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10176,16 +10182,16 @@
         <v>116</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10213,10 +10219,10 @@
         <v>189</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10234,7 +10240,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10255,10 +10261,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10269,10 +10275,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10298,16 +10304,16 @@
         <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10335,10 +10341,10 @@
         <v>296</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10356,7 +10362,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10365,7 +10371,7 @@
         <v>93</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10380,7 +10386,7 @@
         <v>107</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10391,14 +10397,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10420,16 +10426,16 @@
         <v>198</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10457,10 +10463,10 @@
         <v>296</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10478,7 +10484,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10496,27 +10502,27 @@
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10539,19 +10545,19 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10600,7 +10606,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10621,10 +10627,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10635,10 +10641,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10664,13 +10670,13 @@
         <v>198</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10696,13 +10702,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10720,7 +10726,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10738,27 +10744,27 @@
         <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10784,16 +10790,16 @@
         <v>198</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10818,13 +10824,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10842,7 +10848,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10863,10 +10869,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10877,10 +10883,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10903,16 +10909,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10962,7 +10968,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10980,27 +10986,27 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11023,16 +11029,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11082,7 +11088,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11100,27 +11106,27 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11143,19 +11149,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11204,7 +11210,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11216,7 +11222,7 @@
         <v>105</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11225,10 +11231,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11239,10 +11245,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11357,10 +11363,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11477,14 +11483,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11506,10 +11512,10 @@
         <v>141</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>144</v>
@@ -11564,7 +11570,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11599,10 +11605,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11625,16 +11631,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11684,7 +11690,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11693,10 +11699,10 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11705,10 +11711,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11719,10 +11725,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11745,16 +11751,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11804,31 +11810,31 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>560</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11839,10 +11845,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11868,16 +11874,16 @@
         <v>198</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11905,10 +11911,10 @@
         <v>120</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11926,7 +11932,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11944,13 +11950,13 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11961,10 +11967,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11990,16 +11996,16 @@
         <v>198</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12024,13 +12030,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12048,7 +12054,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12066,13 +12072,13 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12083,10 +12089,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12109,19 +12115,19 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12170,7 +12176,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12182,7 +12188,7 @@
         <v>105</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12191,10 +12197,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12205,10 +12211,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12234,10 +12240,10 @@
         <v>213</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>257</v>
@@ -12290,7 +12296,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12311,10 +12317,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12325,10 +12331,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12351,16 +12357,16 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12410,7 +12416,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12431,10 +12437,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12445,10 +12451,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12471,16 +12477,16 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12530,7 +12536,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12551,10 +12557,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12565,10 +12571,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12591,19 +12597,19 @@
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12652,7 +12658,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12664,7 +12670,7 @@
         <v>105</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12673,10 +12679,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12687,10 +12693,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12805,10 +12811,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12925,14 +12931,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12954,10 +12960,10 @@
         <v>141</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>144</v>
@@ -13012,7 +13018,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13047,10 +13053,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13076,16 +13082,16 @@
         <v>198</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13134,7 +13140,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>93</v>
@@ -13152,7 +13158,7 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>301</v>
@@ -13169,10 +13175,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13195,16 +13201,16 @@
         <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>409</v>
@@ -13235,10 +13241,10 @@
         <v>296</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13256,7 +13262,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13265,7 +13271,7 @@
         <v>93</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>106</v>
@@ -13274,7 +13280,7 @@
         <v>82</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>413</v>
@@ -13291,10 +13297,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13320,16 +13326,16 @@
         <v>198</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13357,10 +13363,10 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13378,7 +13384,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13387,7 +13393,7 @@
         <v>93</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>106</v>
@@ -13402,7 +13408,7 @@
         <v>107</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13413,14 +13419,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13442,16 +13448,16 @@
         <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13479,10 +13485,10 @@
         <v>296</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13500,7 +13506,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13518,27 +13524,27 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13564,16 +13570,16 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13622,7 +13628,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13643,10 +13649,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>

--- a/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyHeight.xlsx
+++ b/ExampleIG/output/StructureDefinition-NoVitalSignsObservationBodyHeight.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>No VitalSigns Observation - Body Height</t>
+    <t>Norwegian base profile for VitalSigns Observation - Body Height</t>
   </si>
   <si>
     <t>Status</t>
